--- a/biology/Botanique/Allium_corsicum/Allium_corsicum.xlsx
+++ b/biology/Botanique/Allium_corsicum/Allium_corsicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium corsicum , l'ail de Corse, est une espèce de plantes monocotylédones de la famille des Amaryllidaceae. Elle est endémique de l'Ile de Corse en Méditerranée[1],[2],[3]. C'est une plante rare présente dans les sables littoraux[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium corsicum , l'ail de Corse, est une espèce de plantes monocotylédones de la famille des Amaryllidaceae. Elle est endémique de l'Ile de Corse en Méditerranée. C'est une plante rare présente dans les sables littoraux.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium corsicum, produit un bulbe sphérique à ovoïde et une hampe florale atteignant 60 cm de haut. Les feuilles sont plates et glabres, d'environ 3 mm de large. L'ombelle a de nombreuses fleurs en forme de cloches, blanches ou roses avec des nervures médianes violet foncé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium corsicum, produit un bulbe sphérique à ovoïde et une hampe florale atteignant 60 cm de haut. Les feuilles sont plates et glabres, d'environ 3 mm de large. L'ombelle a de nombreuses fleurs en forme de cloches, blanches ou roses avec des nervures médianes violet foncé.
 les étamines ne dépassant pas plus de 1 mm à l'anthèse; la spathe de moins de 4,5 cm, dépasse un peu l'ombelle. 
 </t>
         </is>
